--- a/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--RIEPILOGO-AGENTI.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--RIEPILOGO-AGENTI.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1° TRIM 2025 - PROVVIGIONI TOTALI AGENTI: </x:t>
-  </x:si>
-  <x:si>
     <x:t>Codice</x:t>
   </x:si>
   <x:si>
@@ -40,7 +34,10 @@
     <x:t>Delta imp. %</x:t>
   </x:si>
   <x:si>
-    <x:t>Provvigioni Passpourt</x:t>
+    <x:t>Imp. Sellout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Provvigioni Passepartout</x:t>
   </x:si>
   <x:si>
     <x:t>Provvigioni Sellout</x:t>
@@ -49,6 +46,12 @@
     <x:t>Provvigioni TOTALI</x:t>
   </x:si>
   <x:si>
+    <x:t>FT_AGENTI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1° TRIM 2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>415.01069</x:t>
   </x:si>
   <x:si>
@@ -131,6 +134,36 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">PALLAVER ANTONIO                                            </x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARCELLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SACCHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SONEPAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMOLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MC ELETTRICI (Magazzino)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MC ELETTRICI (Consegna diretta)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REXEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACMEI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDIF</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -142,7 +175,7 @@
     <x:numFmt numFmtId="164" formatCode="#,##0.00 €"/>
     <x:numFmt numFmtId="165" formatCode="0.00%"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -153,13 +186,6 @@
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="20"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="15"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -217,19 +243,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -239,26 +265,65 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -266,31 +331,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -299,6 +340,42 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2628900" cy="647700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2628900" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,7 +666,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Z23"/>
+  <x:dimension ref="A1:Z124"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -597,510 +674,1565 @@
   <x:cols>
     <x:col min="1" max="1" width="10.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="45.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="9" width="17.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="10" width="14.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:26">
-      <x:c r="C2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="2"/>
-      <x:c r="E2" s="2"/>
-      <x:c r="F2" s="2"/>
-      <x:c r="G2" s="2"/>
-    </x:row>
-    <x:row r="3" spans="1:26">
-      <x:c r="D3" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
+    <x:row r="2" spans="1:26" s="1" customFormat="1">
+      <x:c r="C2" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="3"/>
+      <x:c r="E2" s="3"/>
+      <x:c r="F2" s="3"/>
+      <x:c r="G2" s="3"/>
+    </x:row>
+    <x:row r="3" spans="1:26" s="1" customFormat="1">
+      <x:c r="C3" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="3"/>
       <x:c r="E3" s="3"/>
       <x:c r="F3" s="3"/>
       <x:c r="G3" s="3"/>
     </x:row>
-    <x:row r="8" spans="1:26" ht="30" customHeight="1" s="1" customFormat="1">
+    <x:row r="8" spans="1:26" ht="30" customHeight="1" s="2" customFormat="1">
       <x:c r="A8" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B8" s="4" t="s">
+      <x:c r="D8" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C8" s="4" t="s">
+      <x:c r="E8" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D8" s="4" t="s">
+      <x:c r="F8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E8" s="4" t="s">
+      <x:c r="G8" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="4" t="s">
+      <x:c r="H8" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G8" s="4" t="s">
+      <x:c r="I8" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="H8" s="4" t="s">
+      <x:c r="J8" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I8" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="K8" s="5"/>
+      <x:c r="L8" s="5"/>
+      <x:c r="M8" s="5"/>
+      <x:c r="N8" s="5"/>
+      <x:c r="O8" s="5"/>
+      <x:c r="P8" s="5"/>
+      <x:c r="Q8" s="5"/>
+      <x:c r="R8" s="5"/>
+      <x:c r="S8" s="5"/>
+      <x:c r="T8" s="5"/>
+      <x:c r="U8" s="5"/>
+      <x:c r="V8" s="5"/>
+      <x:c r="W8" s="5"/>
+      <x:c r="X8" s="5"/>
+      <x:c r="Y8" s="5"/>
+      <x:c r="Z8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A9" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B9" s="5" t="s">
+      <x:c r="A9" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C9" s="6">
+      <x:c r="B9" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="7">
         <x:v>434594.05</x:v>
       </x:c>
-      <x:c r="D9" s="6">
+      <x:c r="D9" s="7">
         <x:v>1312474.63</x:v>
       </x:c>
-      <x:c r="E9" s="6">
+      <x:c r="E9" s="7">
         <x:v>877880.579999999</x:v>
       </x:c>
-      <x:c r="F9" s="7">
+      <x:c r="F9" s="8">
         <x:v>2.02000137829775</x:v>
       </x:c>
-      <x:c r="G9" s="6">
+      <x:c r="G9" s="7">
+        <x:v>627539.2</x:v>
+      </x:c>
+      <x:c r="H9" s="7">
         <x:v>31938.1399999999</x:v>
       </x:c>
-      <x:c r="H9" s="6">
+      <x:c r="I9" s="7">
         <x:v>12550.784</x:v>
       </x:c>
-      <x:c r="I9" s="6">
-        <x:f>SUM(G9:H9)</x:f>
+      <x:c r="J9" s="7">
+        <x:f>SUM(H9:I9)</x:f>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A10" s="5" t="s">
+      <x:c r="A10" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C10" s="7">
+        <x:v>328131.48</x:v>
+      </x:c>
+      <x:c r="D10" s="7">
+        <x:v>523151.279999999</x:v>
+      </x:c>
+      <x:c r="E10" s="7">
+        <x:v>195019.799999999</x:v>
+      </x:c>
+      <x:c r="F10" s="8">
+        <x:v>0.594334319889085</x:v>
+      </x:c>
+      <x:c r="G10" s="7">
+        <x:v>427232.6032</x:v>
+      </x:c>
+      <x:c r="H10" s="7">
+        <x:v>14513.69</x:v>
+      </x:c>
+      <x:c r="I10" s="7">
+        <x:v>8544.652064</x:v>
+      </x:c>
+      <x:c r="J10" s="7">
+        <x:f>SUM(H10:I10)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A11" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C11" s="7">
+        <x:v>114292.1</x:v>
+      </x:c>
+      <x:c r="D11" s="7">
+        <x:v>68262.0599999998</x:v>
+      </x:c>
+      <x:c r="E11" s="7">
+        <x:v>-46030.0400000002</x:v>
+      </x:c>
+      <x:c r="F11" s="8">
+        <x:v>-0.402740346883119</x:v>
+      </x:c>
+      <x:c r="G11" s="7">
+        <x:v>176663.0985</x:v>
+      </x:c>
+      <x:c r="H11" s="7">
+        <x:v>2270.52</x:v>
+      </x:c>
+      <x:c r="I11" s="7">
+        <x:v>3533.26197</x:v>
+      </x:c>
+      <x:c r="J11" s="7">
+        <x:f>SUM(H11:I11)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A12" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B12" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C12" s="7">
+        <x:v>548753.449999999</x:v>
+      </x:c>
+      <x:c r="D12" s="7">
+        <x:v>583466.609999999</x:v>
+      </x:c>
+      <x:c r="E12" s="7">
+        <x:v>34713.1600000006</x:v>
+      </x:c>
+      <x:c r="F12" s="8">
+        <x:v>0.0632582082171888</x:v>
+      </x:c>
+      <x:c r="G12" s="7">
+        <x:v>134317.7721</x:v>
+      </x:c>
+      <x:c r="H12" s="7">
+        <x:v>16125.11</x:v>
+      </x:c>
+      <x:c r="I12" s="7">
+        <x:v>2686.355442</x:v>
+      </x:c>
+      <x:c r="J12" s="7">
+        <x:f>SUM(H12:I12)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A13" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B13" s="6" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C13" s="7">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D13" s="7">
+        <x:v>40790.27</x:v>
+      </x:c>
+      <x:c r="E13" s="7">
+        <x:v>40790.27</x:v>
+      </x:c>
+      <x:c r="F13" s="8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G13" s="7">
+        <x:v>97347.4736</x:v>
+      </x:c>
+      <x:c r="H13" s="7">
+        <x:v>2020.65</x:v>
+      </x:c>
+      <x:c r="I13" s="7">
+        <x:v>1946.949472</x:v>
+      </x:c>
+      <x:c r="J13" s="7">
+        <x:f>SUM(H13:I13)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A14" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B14" s="6" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C14" s="7">
+        <x:v>149505.06</x:v>
+      </x:c>
+      <x:c r="D14" s="7">
+        <x:v>89416.01</x:v>
+      </x:c>
+      <x:c r="E14" s="7">
+        <x:v>-60089.05</x:v>
+      </x:c>
+      <x:c r="F14" s="8">
+        <x:v>-0.401919841375269</x:v>
+      </x:c>
+      <x:c r="G14" s="7">
+        <x:v>44677.3192623</x:v>
+      </x:c>
+      <x:c r="H14" s="7">
+        <x:v>3521.52</x:v>
+      </x:c>
+      <x:c r="I14" s="7">
+        <x:v>893.546385246</x:v>
+      </x:c>
+      <x:c r="J14" s="7">
+        <x:f>SUM(H14:I14)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A15" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B15" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C15" s="7">
+        <x:v>222657.01</x:v>
+      </x:c>
+      <x:c r="D15" s="7">
+        <x:v>307858.76</x:v>
+      </x:c>
+      <x:c r="E15" s="7">
+        <x:v>85201.7499999999</x:v>
+      </x:c>
+      <x:c r="F15" s="8">
+        <x:v>0.382659185084717</x:v>
+      </x:c>
+      <x:c r="G15" s="7">
+        <x:v>41691.6925</x:v>
+      </x:c>
+      <x:c r="H15" s="7">
+        <x:v>8974.74999999999</x:v>
+      </x:c>
+      <x:c r="I15" s="7">
+        <x:v>833.83385</x:v>
+      </x:c>
+      <x:c r="J15" s="7">
+        <x:f>SUM(H15:I15)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A16" s="6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B16" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C16" s="7">
+        <x:v>66599.9300000001</x:v>
+      </x:c>
+      <x:c r="D16" s="7">
+        <x:v>69620</x:v>
+      </x:c>
+      <x:c r="E16" s="7">
+        <x:v>3020.06999999995</x:v>
+      </x:c>
+      <x:c r="F16" s="8">
+        <x:v>0.0453464440578233</x:v>
+      </x:c>
+      <x:c r="G16" s="7">
+        <x:v>285982.4012539</x:v>
+      </x:c>
+      <x:c r="H16" s="7">
+        <x:v>2376.47</x:v>
+      </x:c>
+      <x:c r="I16" s="7">
+        <x:v>5719.648025078</x:v>
+      </x:c>
+      <x:c r="J16" s="7">
+        <x:f>SUM(H16:I16)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A17" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B17" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C17" s="7">
+        <x:v>407343.69</x:v>
+      </x:c>
+      <x:c r="D17" s="7">
+        <x:v>706237.459999999</x:v>
+      </x:c>
+      <x:c r="E17" s="7">
+        <x:v>298893.769999999</x:v>
+      </x:c>
+      <x:c r="F17" s="8">
+        <x:v>0.733763103093602</x:v>
+      </x:c>
+      <x:c r="G17" s="7">
+        <x:v>589278.3800186</x:v>
+      </x:c>
+      <x:c r="H17" s="7">
+        <x:v>24161.53</x:v>
+      </x:c>
+      <x:c r="I17" s="7">
+        <x:v>11785.567600372</x:v>
+      </x:c>
+      <x:c r="J17" s="7">
+        <x:f>SUM(H17:I17)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A18" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B18" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C18" s="7">
+        <x:v>156897.43</x:v>
+      </x:c>
+      <x:c r="D18" s="7">
+        <x:v>366000.200000001</x:v>
+      </x:c>
+      <x:c r="E18" s="7">
+        <x:v>209102.77</x:v>
+      </x:c>
+      <x:c r="F18" s="8">
+        <x:v>1.33273546928079</x:v>
+      </x:c>
+      <x:c r="G18" s="7">
+        <x:v>367723.828</x:v>
+      </x:c>
+      <x:c r="H18" s="7">
+        <x:v>8018.52</x:v>
+      </x:c>
+      <x:c r="I18" s="7">
+        <x:v>7354.47656</x:v>
+      </x:c>
+      <x:c r="J18" s="7">
+        <x:f>SUM(H18:I18)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A19" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B19" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C19" s="7">
+        <x:v>215662.03</x:v>
+      </x:c>
+      <x:c r="D19" s="7">
+        <x:v>450769.55</x:v>
+      </x:c>
+      <x:c r="E19" s="7">
+        <x:v>235107.52</x:v>
+      </x:c>
+      <x:c r="F19" s="8">
+        <x:v>1.09016649801544</x:v>
+      </x:c>
+      <x:c r="G19" s="7">
+        <x:v>176663.0985</x:v>
+      </x:c>
+      <x:c r="H19" s="7">
+        <x:v>10564.29</x:v>
+      </x:c>
+      <x:c r="I19" s="7">
+        <x:v>3533.26197</x:v>
+      </x:c>
+      <x:c r="J19" s="7">
+        <x:f>SUM(H19:I19)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A20" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B20" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="7">
+        <x:v>69417.02</x:v>
+      </x:c>
+      <x:c r="D20" s="7">
+        <x:v>66843.61</x:v>
+      </x:c>
+      <x:c r="E20" s="7">
+        <x:v>-2573.41000000003</x:v>
+      </x:c>
+      <x:c r="F20" s="8">
+        <x:v>-0.0370717440765972</x:v>
+      </x:c>
+      <x:c r="G20" s="7">
+        <x:v>85396.908</x:v>
+      </x:c>
+      <x:c r="H20" s="7">
+        <x:v>2780.4</x:v>
+      </x:c>
+      <x:c r="I20" s="7">
+        <x:v>1707.93816</x:v>
+      </x:c>
+      <x:c r="J20" s="7">
+        <x:f>SUM(H20:I20)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A21" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B21" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C21" s="7">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D21" s="7">
+        <x:v>234817.54</x:v>
+      </x:c>
+      <x:c r="E21" s="7">
+        <x:v>234817.54</x:v>
+      </x:c>
+      <x:c r="F21" s="8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G21" s="7">
+        <x:v>135505.1876</x:v>
+      </x:c>
+      <x:c r="H21" s="7">
+        <x:v>7333.34</x:v>
+      </x:c>
+      <x:c r="I21" s="7">
+        <x:v>2710.103752</x:v>
+      </x:c>
+      <x:c r="J21" s="7">
+        <x:f>SUM(H21:I21)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:26" ht="20" customHeight="1">
+      <x:c r="A22" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B22" s="6" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C22" s="7">
+        <x:v>28363.51</x:v>
+      </x:c>
+      <x:c r="D22" s="7">
+        <x:v>445785.17</x:v>
+      </x:c>
+      <x:c r="E22" s="7">
+        <x:v>417421.66</x:v>
+      </x:c>
+      <x:c r="F22" s="8">
+        <x:v>14.716854860347</x:v>
+      </x:c>
+      <x:c r="G22" s="7">
+        <x:v>384599.1035</x:v>
+      </x:c>
+      <x:c r="H22" s="7">
+        <x:v>10923.63</x:v>
+      </x:c>
+      <x:c r="I22" s="7">
+        <x:v>7691.98207</x:v>
+      </x:c>
+      <x:c r="J22" s="7">
+        <x:f>SUM(H22:I22)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:26" ht="20" customHeight="1">
+      <x:c r="C23" s="9">
+        <x:f>SUM(C9:C22)</x:f>
+      </x:c>
+      <x:c r="D23" s="9">
+        <x:f>SUM(D9:D22)</x:f>
+      </x:c>
+      <x:c r="E23" s="9">
+        <x:f>SUM(E9:E22)</x:f>
+      </x:c>
+      <x:c r="F23" s="10">
+        <x:f>AVERAGE(F9:F22)</x:f>
+      </x:c>
+      <x:c r="G23" s="9">
+        <x:f>SUM(G9:G22)</x:f>
+      </x:c>
+      <x:c r="H23" s="9">
+        <x:f>SUM(H9:H22)</x:f>
+      </x:c>
+      <x:c r="I23" s="9">
+        <x:f>SUM(I9:I22)</x:f>
+      </x:c>
+      <x:c r="J23" s="9">
+        <x:f>SUM(J9:J22)</x:f>
+      </x:c>
+      <x:c r="K23" s="11"/>
+      <x:c r="L23" s="11"/>
+      <x:c r="M23" s="11"/>
+      <x:c r="N23" s="11"/>
+      <x:c r="O23" s="11"/>
+      <x:c r="P23" s="11"/>
+      <x:c r="Q23" s="11"/>
+      <x:c r="R23" s="11"/>
+      <x:c r="S23" s="11"/>
+      <x:c r="T23" s="11"/>
+      <x:c r="U23" s="11"/>
+      <x:c r="V23" s="11"/>
+      <x:c r="W23" s="11"/>
+      <x:c r="X23" s="11"/>
+      <x:c r="Y23" s="11"/>
+      <x:c r="Z23" s="11"/>
+    </x:row>
+    <x:row r="25" spans="1:26">
+      <x:c r="A25" s="12" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="12" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B10" s="5" t="s">
+      <x:c r="C25" s="12"/>
+      <x:c r="D25" s="12"/>
+      <x:c r="E25" s="12"/>
+      <x:c r="F25" s="12"/>
+      <x:c r="G25" s="12"/>
+      <x:c r="H25" s="12"/>
+      <x:c r="I25" s="12"/>
+      <x:c r="J25" s="12"/>
+      <x:c r="K25" s="12"/>
+      <x:c r="L25" s="12"/>
+      <x:c r="M25" s="12"/>
+      <x:c r="N25" s="12"/>
+      <x:c r="O25" s="12"/>
+      <x:c r="P25" s="12"/>
+      <x:c r="Q25" s="12"/>
+      <x:c r="R25" s="12"/>
+      <x:c r="S25" s="12"/>
+      <x:c r="T25" s="12"/>
+      <x:c r="U25" s="12"/>
+      <x:c r="V25" s="12"/>
+      <x:c r="W25" s="12"/>
+      <x:c r="X25" s="12"/>
+      <x:c r="Y25" s="12"/>
+      <x:c r="Z25" s="12"/>
+    </x:row>
+    <x:row r="26" spans="1:26">
+      <x:c r="B26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C26" s="13">
+        <x:v>37812.47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:26">
+      <x:c r="B27" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C27" s="13">
+        <x:v>58080.34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:26">
+      <x:c r="B28" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C28" s="13">
+        <x:v>18332.34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:26">
+      <x:c r="B29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C29" s="13">
+        <x:v>513314.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:26">
+      <x:c r="C30" s="11">
+        <x:f>SUM(C26:C29)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:26">
+      <x:c r="A32" s="12" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C10" s="6">
-        <x:v>328131.48</x:v>
-      </x:c>
-      <x:c r="D10" s="6">
-        <x:v>523151.279999999</x:v>
-      </x:c>
-      <x:c r="E10" s="6">
-        <x:v>195019.799999999</x:v>
-      </x:c>
-      <x:c r="F10" s="7">
-        <x:v>0.594334319889085</x:v>
-      </x:c>
-      <x:c r="G10" s="6">
-        <x:v>14513.69</x:v>
-      </x:c>
-      <x:c r="H10" s="6">
-        <x:v>8544.652064</x:v>
-      </x:c>
-      <x:c r="I10" s="6">
-        <x:f>SUM(G10:H10)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A11" s="5" t="s">
+      <x:c r="B32" s="12" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B11" s="5" t="s">
+      <x:c r="C32" s="12"/>
+      <x:c r="D32" s="12"/>
+      <x:c r="E32" s="12"/>
+      <x:c r="F32" s="12"/>
+      <x:c r="G32" s="12"/>
+      <x:c r="H32" s="12"/>
+      <x:c r="I32" s="12"/>
+      <x:c r="J32" s="12"/>
+      <x:c r="K32" s="12"/>
+      <x:c r="L32" s="12"/>
+      <x:c r="M32" s="12"/>
+      <x:c r="N32" s="12"/>
+      <x:c r="O32" s="12"/>
+      <x:c r="P32" s="12"/>
+      <x:c r="Q32" s="12"/>
+      <x:c r="R32" s="12"/>
+      <x:c r="S32" s="12"/>
+      <x:c r="T32" s="12"/>
+      <x:c r="U32" s="12"/>
+      <x:c r="V32" s="12"/>
+      <x:c r="W32" s="12"/>
+      <x:c r="X32" s="12"/>
+      <x:c r="Y32" s="12"/>
+      <x:c r="Z32" s="12"/>
+    </x:row>
+    <x:row r="33" spans="1:26">
+      <x:c r="B33" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C33" s="13">
+        <x:v>136578.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:26">
+      <x:c r="B34" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C34" s="13">
+        <x:v>4744.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:26">
+      <x:c r="B35" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C35" s="13">
+        <x:v>19613.4021</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:26">
+      <x:c r="B36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C36" s="13">
+        <x:v>5147.1711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:26">
+      <x:c r="B37" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C37" s="13">
+        <x:v>8227.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:26">
+      <x:c r="B38" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C38" s="13">
+        <x:v>72951.15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:26">
+      <x:c r="B39" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C39" s="13">
+        <x:v>142005.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:26">
+      <x:c r="B40" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C40" s="13">
+        <x:v>37965.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:26">
+      <x:c r="C41" s="11">
+        <x:f>SUM(C33:C40)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:26">
+      <x:c r="A43" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C11" s="6">
-        <x:v>114292.1</x:v>
-      </x:c>
-      <x:c r="D11" s="6">
-        <x:v>68262.0599999998</x:v>
-      </x:c>
-      <x:c r="E11" s="6">
-        <x:v>-46030.0400000001</x:v>
-      </x:c>
-      <x:c r="F11" s="7">
-        <x:v>-0.402740346883119</x:v>
-      </x:c>
-      <x:c r="G11" s="6">
-        <x:v>2270.52</x:v>
-      </x:c>
-      <x:c r="H11" s="6">
-        <x:v>3533.26197</x:v>
-      </x:c>
-      <x:c r="I11" s="6">
-        <x:f>SUM(G11:H11)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A12" s="5" t="s">
+      <x:c r="B43" s="12" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B12" s="5" t="s">
+      <x:c r="C43" s="12"/>
+      <x:c r="D43" s="12"/>
+      <x:c r="E43" s="12"/>
+      <x:c r="F43" s="12"/>
+      <x:c r="G43" s="12"/>
+      <x:c r="H43" s="12"/>
+      <x:c r="I43" s="12"/>
+      <x:c r="J43" s="12"/>
+      <x:c r="K43" s="12"/>
+      <x:c r="L43" s="12"/>
+      <x:c r="M43" s="12"/>
+      <x:c r="N43" s="12"/>
+      <x:c r="O43" s="12"/>
+      <x:c r="P43" s="12"/>
+      <x:c r="Q43" s="12"/>
+      <x:c r="R43" s="12"/>
+      <x:c r="S43" s="12"/>
+      <x:c r="T43" s="12"/>
+      <x:c r="U43" s="12"/>
+      <x:c r="V43" s="12"/>
+      <x:c r="W43" s="12"/>
+      <x:c r="X43" s="12"/>
+      <x:c r="Y43" s="12"/>
+      <x:c r="Z43" s="12"/>
+    </x:row>
+    <x:row r="44" spans="1:26">
+      <x:c r="B44" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C44" s="13">
+        <x:v>26285.0148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:26">
+      <x:c r="B45" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C45" s="13">
+        <x:v>5976.2637</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:26">
+      <x:c r="B46" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C46" s="13">
+        <x:v>33759.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:26">
+      <x:c r="B47" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C47" s="13">
+        <x:v>110642.46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:26">
+      <x:c r="C48" s="11">
+        <x:f>SUM(C44:C47)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:26">
+      <x:c r="A50" s="12" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="6">
-        <x:v>548753.449999999</x:v>
-      </x:c>
-      <x:c r="D12" s="6">
-        <x:v>583466.61</x:v>
-      </x:c>
-      <x:c r="E12" s="6">
-        <x:v>34713.1600000007</x:v>
-      </x:c>
-      <x:c r="F12" s="7">
-        <x:v>0.063258208217189</x:v>
-      </x:c>
-      <x:c r="G12" s="6">
-        <x:v>16125.11</x:v>
-      </x:c>
-      <x:c r="H12" s="6">
-        <x:v>2686.355442</x:v>
-      </x:c>
-      <x:c r="I12" s="6">
-        <x:f>SUM(G12:H12)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A13" s="5" t="s">
+      <x:c r="B50" s="12" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="5" t="s">
+      <x:c r="C50" s="12"/>
+      <x:c r="D50" s="12"/>
+      <x:c r="E50" s="12"/>
+      <x:c r="F50" s="12"/>
+      <x:c r="G50" s="12"/>
+      <x:c r="H50" s="12"/>
+      <x:c r="I50" s="12"/>
+      <x:c r="J50" s="12"/>
+      <x:c r="K50" s="12"/>
+      <x:c r="L50" s="12"/>
+      <x:c r="M50" s="12"/>
+      <x:c r="N50" s="12"/>
+      <x:c r="O50" s="12"/>
+      <x:c r="P50" s="12"/>
+      <x:c r="Q50" s="12"/>
+      <x:c r="R50" s="12"/>
+      <x:c r="S50" s="12"/>
+      <x:c r="T50" s="12"/>
+      <x:c r="U50" s="12"/>
+      <x:c r="V50" s="12"/>
+      <x:c r="W50" s="12"/>
+      <x:c r="X50" s="12"/>
+      <x:c r="Y50" s="12"/>
+      <x:c r="Z50" s="12"/>
+    </x:row>
+    <x:row r="51" spans="1:26">
+      <x:c r="B51" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C51" s="13">
+        <x:v>12992.2668</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:26">
+      <x:c r="B52" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C52" s="13">
+        <x:v>6212.6253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:26">
+      <x:c r="B53" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C53" s="13">
+        <x:v>115112.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:26">
+      <x:c r="C54" s="11">
+        <x:f>SUM(C51:C53)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:26">
+      <x:c r="A56" s="12" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C13" s="6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="6">
-        <x:v>40790.27</x:v>
-      </x:c>
-      <x:c r="E13" s="6">
-        <x:v>40790.27</x:v>
-      </x:c>
-      <x:c r="F13" s="7">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G13" s="6">
-        <x:v>2020.65</x:v>
-      </x:c>
-      <x:c r="H13" s="6">
-        <x:v>1946.949472</x:v>
-      </x:c>
-      <x:c r="I13" s="6">
-        <x:f>SUM(G13:H13)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A14" s="5" t="s">
+      <x:c r="B56" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B14" s="5" t="s">
+      <x:c r="C56" s="12"/>
+      <x:c r="D56" s="12"/>
+      <x:c r="E56" s="12"/>
+      <x:c r="F56" s="12"/>
+      <x:c r="G56" s="12"/>
+      <x:c r="H56" s="12"/>
+      <x:c r="I56" s="12"/>
+      <x:c r="J56" s="12"/>
+      <x:c r="K56" s="12"/>
+      <x:c r="L56" s="12"/>
+      <x:c r="M56" s="12"/>
+      <x:c r="N56" s="12"/>
+      <x:c r="O56" s="12"/>
+      <x:c r="P56" s="12"/>
+      <x:c r="Q56" s="12"/>
+      <x:c r="R56" s="12"/>
+      <x:c r="S56" s="12"/>
+      <x:c r="T56" s="12"/>
+      <x:c r="U56" s="12"/>
+      <x:c r="V56" s="12"/>
+      <x:c r="W56" s="12"/>
+      <x:c r="X56" s="12"/>
+      <x:c r="Y56" s="12"/>
+      <x:c r="Z56" s="12"/>
+    </x:row>
+    <x:row r="57" spans="1:26">
+      <x:c r="B57" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C57" s="13">
+        <x:v>8032.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:26">
+      <x:c r="B58" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C58" s="13">
+        <x:v>6142.6593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:26">
+      <x:c r="B59" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C59" s="13">
+        <x:v>2260.9143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:26">
+      <x:c r="B60" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C60" s="13">
+        <x:v>80911.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:26">
+      <x:c r="C61" s="11">
+        <x:f>SUM(C57:C60)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:26">
+      <x:c r="A63" s="12" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C14" s="6">
-        <x:v>149505.06</x:v>
-      </x:c>
-      <x:c r="D14" s="6">
-        <x:v>89416.01</x:v>
-      </x:c>
-      <x:c r="E14" s="6">
-        <x:v>-60089.0500000001</x:v>
-      </x:c>
-      <x:c r="F14" s="7">
-        <x:v>-0.401919841375269</x:v>
-      </x:c>
-      <x:c r="G14" s="6">
-        <x:v>3521.52</x:v>
-      </x:c>
-      <x:c r="H14" s="6">
-        <x:v>893.546385246</x:v>
-      </x:c>
-      <x:c r="I14" s="6">
-        <x:f>SUM(G14:H14)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A15" s="5" t="s">
+      <x:c r="B63" s="12" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B15" s="5" t="s">
+      <x:c r="C63" s="12"/>
+      <x:c r="D63" s="12"/>
+      <x:c r="E63" s="12"/>
+      <x:c r="F63" s="12"/>
+      <x:c r="G63" s="12"/>
+      <x:c r="H63" s="12"/>
+      <x:c r="I63" s="12"/>
+      <x:c r="J63" s="12"/>
+      <x:c r="K63" s="12"/>
+      <x:c r="L63" s="12"/>
+      <x:c r="M63" s="12"/>
+      <x:c r="N63" s="12"/>
+      <x:c r="O63" s="12"/>
+      <x:c r="P63" s="12"/>
+      <x:c r="Q63" s="12"/>
+      <x:c r="R63" s="12"/>
+      <x:c r="S63" s="12"/>
+      <x:c r="T63" s="12"/>
+      <x:c r="U63" s="12"/>
+      <x:c r="V63" s="12"/>
+      <x:c r="W63" s="12"/>
+      <x:c r="X63" s="12"/>
+      <x:c r="Y63" s="12"/>
+      <x:c r="Z63" s="12"/>
+    </x:row>
+    <x:row r="64" spans="1:26">
+      <x:c r="B64" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C64" s="13">
+        <x:v>25802.8628903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:26">
+      <x:c r="B65" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C65" s="13">
+        <x:v>4297.596372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:26">
+      <x:c r="B66" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C66" s="13">
+        <x:v>2865.99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:26">
+      <x:c r="B67" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C67" s="13">
+        <x:v>11710.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:26">
+      <x:c r="C68" s="11">
+        <x:f>SUM(C64:C67)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:26">
+      <x:c r="A70" s="12" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C15" s="6">
-        <x:v>222657.01</x:v>
-      </x:c>
-      <x:c r="D15" s="6">
-        <x:v>307858.76</x:v>
-      </x:c>
-      <x:c r="E15" s="6">
-        <x:v>85201.7499999999</x:v>
-      </x:c>
-      <x:c r="F15" s="7">
-        <x:v>0.382659185084717</x:v>
-      </x:c>
-      <x:c r="G15" s="6">
-        <x:v>8974.74999999999</x:v>
-      </x:c>
-      <x:c r="H15" s="6">
-        <x:v>833.83385</x:v>
-      </x:c>
-      <x:c r="I15" s="6">
-        <x:f>SUM(G15:H15)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A16" s="5" t="s">
+      <x:c r="B70" s="12" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B16" s="5" t="s">
+      <x:c r="C70" s="12"/>
+      <x:c r="D70" s="12"/>
+      <x:c r="E70" s="12"/>
+      <x:c r="F70" s="12"/>
+      <x:c r="G70" s="12"/>
+      <x:c r="H70" s="12"/>
+      <x:c r="I70" s="12"/>
+      <x:c r="J70" s="12"/>
+      <x:c r="K70" s="12"/>
+      <x:c r="L70" s="12"/>
+      <x:c r="M70" s="12"/>
+      <x:c r="N70" s="12"/>
+      <x:c r="O70" s="12"/>
+      <x:c r="P70" s="12"/>
+      <x:c r="Q70" s="12"/>
+      <x:c r="R70" s="12"/>
+      <x:c r="S70" s="12"/>
+      <x:c r="T70" s="12"/>
+      <x:c r="U70" s="12"/>
+      <x:c r="V70" s="12"/>
+      <x:c r="W70" s="12"/>
+      <x:c r="X70" s="12"/>
+      <x:c r="Y70" s="12"/>
+      <x:c r="Z70" s="12"/>
+    </x:row>
+    <x:row r="71" spans="1:26">
+      <x:c r="B71" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C71" s="13">
+        <x:v>2184.6591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:26">
+      <x:c r="B72" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C72" s="13">
+        <x:v>10047.7134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:26">
+      <x:c r="B73" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C73" s="13">
+        <x:v>29459.32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:26">
+      <x:c r="C74" s="11">
+        <x:f>SUM(C71:C73)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:26">
+      <x:c r="A76" s="12" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C16" s="6">
-        <x:v>66599.9300000001</x:v>
-      </x:c>
-      <x:c r="D16" s="6">
-        <x:v>69620</x:v>
-      </x:c>
-      <x:c r="E16" s="6">
-        <x:v>3020.06999999995</x:v>
-      </x:c>
-      <x:c r="F16" s="7">
-        <x:v>0.0453464440578233</x:v>
-      </x:c>
-      <x:c r="G16" s="6">
-        <x:v>2376.47</x:v>
-      </x:c>
-      <x:c r="H16" s="6">
-        <x:v>5719.648025078</x:v>
-      </x:c>
-      <x:c r="I16" s="6">
-        <x:f>SUM(G16:H16)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A17" s="5" t="s">
+      <x:c r="B76" s="12" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B17" s="5" t="s">
+      <x:c r="C76" s="12"/>
+      <x:c r="D76" s="12"/>
+      <x:c r="E76" s="12"/>
+      <x:c r="F76" s="12"/>
+      <x:c r="G76" s="12"/>
+      <x:c r="H76" s="12"/>
+      <x:c r="I76" s="12"/>
+      <x:c r="J76" s="12"/>
+      <x:c r="K76" s="12"/>
+      <x:c r="L76" s="12"/>
+      <x:c r="M76" s="12"/>
+      <x:c r="N76" s="12"/>
+      <x:c r="O76" s="12"/>
+      <x:c r="P76" s="12"/>
+      <x:c r="Q76" s="12"/>
+      <x:c r="R76" s="12"/>
+      <x:c r="S76" s="12"/>
+      <x:c r="T76" s="12"/>
+      <x:c r="U76" s="12"/>
+      <x:c r="V76" s="12"/>
+      <x:c r="W76" s="12"/>
+      <x:c r="X76" s="12"/>
+      <x:c r="Y76" s="12"/>
+      <x:c r="Z76" s="12"/>
+    </x:row>
+    <x:row r="77" spans="1:26">
+      <x:c r="B77" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C77" s="13">
+        <x:v>50231.7612539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:26">
+      <x:c r="B78" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C78" s="13">
+        <x:v>151474.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:26">
+      <x:c r="B79" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C79" s="13">
+        <x:v>84276.27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:26">
+      <x:c r="C80" s="11">
+        <x:f>SUM(C77:C79)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:26">
+      <x:c r="A82" s="12" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C17" s="6">
-        <x:v>407343.69</x:v>
-      </x:c>
-      <x:c r="D17" s="6">
-        <x:v>706237.459999999</x:v>
-      </x:c>
-      <x:c r="E17" s="6">
-        <x:v>298893.769999999</x:v>
-      </x:c>
-      <x:c r="F17" s="7">
-        <x:v>0.733763103093603</x:v>
-      </x:c>
-      <x:c r="G17" s="6">
-        <x:v>24161.53</x:v>
-      </x:c>
-      <x:c r="H17" s="6">
-        <x:v>11785.567600372</x:v>
-      </x:c>
-      <x:c r="I17" s="6">
-        <x:f>SUM(G17:H17)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A18" s="5" t="s">
+      <x:c r="B82" s="12" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B18" s="5" t="s">
+      <x:c r="C82" s="12"/>
+      <x:c r="D82" s="12"/>
+      <x:c r="E82" s="12"/>
+      <x:c r="F82" s="12"/>
+      <x:c r="G82" s="12"/>
+      <x:c r="H82" s="12"/>
+      <x:c r="I82" s="12"/>
+      <x:c r="J82" s="12"/>
+      <x:c r="K82" s="12"/>
+      <x:c r="L82" s="12"/>
+      <x:c r="M82" s="12"/>
+      <x:c r="N82" s="12"/>
+      <x:c r="O82" s="12"/>
+      <x:c r="P82" s="12"/>
+      <x:c r="Q82" s="12"/>
+      <x:c r="R82" s="12"/>
+      <x:c r="S82" s="12"/>
+      <x:c r="T82" s="12"/>
+      <x:c r="U82" s="12"/>
+      <x:c r="V82" s="12"/>
+      <x:c r="W82" s="12"/>
+      <x:c r="X82" s="12"/>
+      <x:c r="Y82" s="12"/>
+      <x:c r="Z82" s="12"/>
+    </x:row>
+    <x:row r="83" spans="1:26">
+      <x:c r="B83" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C83" s="13">
+        <x:v>407099.7300186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:26">
+      <x:c r="B84" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C84" s="13">
+        <x:v>182178.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:26">
+      <x:c r="C85" s="11">
+        <x:f>SUM(C83:C84)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:26">
+      <x:c r="A87" s="12" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C18" s="6">
-        <x:v>156897.43</x:v>
-      </x:c>
-      <x:c r="D18" s="6">
-        <x:v>366000.200000001</x:v>
-      </x:c>
-      <x:c r="E18" s="6">
-        <x:v>209102.77</x:v>
-      </x:c>
-      <x:c r="F18" s="7">
-        <x:v>1.33273546928079</x:v>
-      </x:c>
-      <x:c r="G18" s="6">
-        <x:v>8018.52</x:v>
-      </x:c>
-      <x:c r="H18" s="6">
-        <x:v>7354.47656</x:v>
-      </x:c>
-      <x:c r="I18" s="6">
-        <x:f>SUM(G18:H18)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A19" s="5" t="s">
+      <x:c r="B87" s="12" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B19" s="5" t="s">
+      <x:c r="C87" s="12"/>
+      <x:c r="D87" s="12"/>
+      <x:c r="E87" s="12"/>
+      <x:c r="F87" s="12"/>
+      <x:c r="G87" s="12"/>
+      <x:c r="H87" s="12"/>
+      <x:c r="I87" s="12"/>
+      <x:c r="J87" s="12"/>
+      <x:c r="K87" s="12"/>
+      <x:c r="L87" s="12"/>
+      <x:c r="M87" s="12"/>
+      <x:c r="N87" s="12"/>
+      <x:c r="O87" s="12"/>
+      <x:c r="P87" s="12"/>
+      <x:c r="Q87" s="12"/>
+      <x:c r="R87" s="12"/>
+      <x:c r="S87" s="12"/>
+      <x:c r="T87" s="12"/>
+      <x:c r="U87" s="12"/>
+      <x:c r="V87" s="12"/>
+      <x:c r="W87" s="12"/>
+      <x:c r="X87" s="12"/>
+      <x:c r="Y87" s="12"/>
+      <x:c r="Z87" s="12"/>
+    </x:row>
+    <x:row r="88" spans="1:26">
+      <x:c r="B88" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C88" s="13">
+        <x:v>1333.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:26">
+      <x:c r="B89" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C89" s="13">
+        <x:v>196.308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:26">
+      <x:c r="B90" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C90" s="13">
+        <x:v>217.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:26">
+      <x:c r="B91" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C91" s="13">
+        <x:v>365976.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:26">
+      <x:c r="C92" s="11">
+        <x:f>SUM(C88:C91)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:26">
+      <x:c r="A94" s="12" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C19" s="6">
-        <x:v>215662.03</x:v>
-      </x:c>
-      <x:c r="D19" s="6">
-        <x:v>450769.55</x:v>
-      </x:c>
-      <x:c r="E19" s="6">
-        <x:v>235107.52</x:v>
-      </x:c>
-      <x:c r="F19" s="7">
-        <x:v>1.09016649801544</x:v>
-      </x:c>
-      <x:c r="G19" s="6">
-        <x:v>10564.29</x:v>
-      </x:c>
-      <x:c r="H19" s="6">
-        <x:v>3533.26197</x:v>
-      </x:c>
-      <x:c r="I19" s="6">
-        <x:f>SUM(G19:H19)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A20" s="5" t="s">
+      <x:c r="B94" s="12" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B20" s="5" t="s">
+      <x:c r="C94" s="12"/>
+      <x:c r="D94" s="12"/>
+      <x:c r="E94" s="12"/>
+      <x:c r="F94" s="12"/>
+      <x:c r="G94" s="12"/>
+      <x:c r="H94" s="12"/>
+      <x:c r="I94" s="12"/>
+      <x:c r="J94" s="12"/>
+      <x:c r="K94" s="12"/>
+      <x:c r="L94" s="12"/>
+      <x:c r="M94" s="12"/>
+      <x:c r="N94" s="12"/>
+      <x:c r="O94" s="12"/>
+      <x:c r="P94" s="12"/>
+      <x:c r="Q94" s="12"/>
+      <x:c r="R94" s="12"/>
+      <x:c r="S94" s="12"/>
+      <x:c r="T94" s="12"/>
+      <x:c r="U94" s="12"/>
+      <x:c r="V94" s="12"/>
+      <x:c r="W94" s="12"/>
+      <x:c r="X94" s="12"/>
+      <x:c r="Y94" s="12"/>
+      <x:c r="Z94" s="12"/>
+    </x:row>
+    <x:row r="95" spans="1:26">
+      <x:c r="B95" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C95" s="13">
+        <x:v>26285.0148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:26">
+      <x:c r="B96" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C96" s="13">
+        <x:v>5976.2637</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:26">
+      <x:c r="B97" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C97" s="13">
+        <x:v>33759.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:26">
+      <x:c r="B98" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C98" s="13">
+        <x:v>110642.46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:26">
+      <x:c r="C99" s="11">
+        <x:f>SUM(C95:C98)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:26">
+      <x:c r="A101" s="12" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C20" s="6">
-        <x:v>69417.02</x:v>
-      </x:c>
-      <x:c r="D20" s="6">
-        <x:v>66843.61</x:v>
-      </x:c>
-      <x:c r="E20" s="6">
-        <x:v>-2573.41000000005</x:v>
-      </x:c>
-      <x:c r="F20" s="7">
-        <x:v>-0.0370717440765974</x:v>
-      </x:c>
-      <x:c r="G20" s="6">
-        <x:v>2780.4</x:v>
-      </x:c>
-      <x:c r="H20" s="6">
-        <x:v>1707.93816</x:v>
-      </x:c>
-      <x:c r="I20" s="6">
-        <x:f>SUM(G20:H20)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A21" s="5" t="s">
+      <x:c r="B101" s="12" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B21" s="5" t="s">
+      <x:c r="C101" s="12"/>
+      <x:c r="D101" s="12"/>
+      <x:c r="E101" s="12"/>
+      <x:c r="F101" s="12"/>
+      <x:c r="G101" s="12"/>
+      <x:c r="H101" s="12"/>
+      <x:c r="I101" s="12"/>
+      <x:c r="J101" s="12"/>
+      <x:c r="K101" s="12"/>
+      <x:c r="L101" s="12"/>
+      <x:c r="M101" s="12"/>
+      <x:c r="N101" s="12"/>
+      <x:c r="O101" s="12"/>
+      <x:c r="P101" s="12"/>
+      <x:c r="Q101" s="12"/>
+      <x:c r="R101" s="12"/>
+      <x:c r="S101" s="12"/>
+      <x:c r="T101" s="12"/>
+      <x:c r="U101" s="12"/>
+      <x:c r="V101" s="12"/>
+      <x:c r="W101" s="12"/>
+      <x:c r="X101" s="12"/>
+      <x:c r="Y101" s="12"/>
+      <x:c r="Z101" s="12"/>
+    </x:row>
+    <x:row r="102" spans="1:26">
+      <x:c r="B102" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C102" s="13">
+        <x:v>30981.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:26">
+      <x:c r="B103" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C103" s="13">
+        <x:v>31.518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:26">
+      <x:c r="B104" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C104" s="13">
+        <x:v>2627.34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:26">
+      <x:c r="B105" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C105" s="13">
+        <x:v>51756.55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:26">
+      <x:c r="C106" s="11">
+        <x:f>SUM(C102:C105)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:26">
+      <x:c r="A108" s="12" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C21" s="6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D21" s="6">
-        <x:v>234817.54</x:v>
-      </x:c>
-      <x:c r="E21" s="6">
-        <x:v>234817.54</x:v>
-      </x:c>
-      <x:c r="F21" s="7">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G21" s="6">
-        <x:v>7333.34</x:v>
-      </x:c>
-      <x:c r="H21" s="6">
-        <x:v>2710.103752</x:v>
-      </x:c>
-      <x:c r="I21" s="6">
-        <x:f>SUM(G21:H21)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:26" ht="20" customHeight="1">
-      <x:c r="A22" s="5" t="s">
+      <x:c r="B108" s="12" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B22" s="5" t="s">
+      <x:c r="C108" s="12"/>
+      <x:c r="D108" s="12"/>
+      <x:c r="E108" s="12"/>
+      <x:c r="F108" s="12"/>
+      <x:c r="G108" s="12"/>
+      <x:c r="H108" s="12"/>
+      <x:c r="I108" s="12"/>
+      <x:c r="J108" s="12"/>
+      <x:c r="K108" s="12"/>
+      <x:c r="L108" s="12"/>
+      <x:c r="M108" s="12"/>
+      <x:c r="N108" s="12"/>
+      <x:c r="O108" s="12"/>
+      <x:c r="P108" s="12"/>
+      <x:c r="Q108" s="12"/>
+      <x:c r="R108" s="12"/>
+      <x:c r="S108" s="12"/>
+      <x:c r="T108" s="12"/>
+      <x:c r="U108" s="12"/>
+      <x:c r="V108" s="12"/>
+      <x:c r="W108" s="12"/>
+      <x:c r="X108" s="12"/>
+      <x:c r="Y108" s="12"/>
+      <x:c r="Z108" s="12"/>
+    </x:row>
+    <x:row r="109" spans="1:26">
+      <x:c r="B109" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C109" s="13">
+        <x:v>393.84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:26">
+      <x:c r="B110" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C110" s="13">
+        <x:v>177.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:26">
+      <x:c r="B111" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C111" s="13">
+        <x:v>18840.59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:26">
+      <x:c r="B112" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C112" s="13">
+        <x:v>7960.626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:26">
+      <x:c r="B113" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C113" s="13">
+        <x:v>3318.5016</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:26">
+      <x:c r="B114" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C114" s="13">
+        <x:v>26677.28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:26">
+      <x:c r="B115" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C115" s="13">
+        <x:v>1429.32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:26">
+      <x:c r="B116" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C116" s="13">
+        <x:v>76707.73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:26">
+      <x:c r="C117" s="11">
+        <x:f>SUM(C109:C116)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:26">
+      <x:c r="A119" s="12" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C22" s="6">
-        <x:v>28363.51</x:v>
-      </x:c>
-      <x:c r="D22" s="6">
-        <x:v>445785.17</x:v>
-      </x:c>
-      <x:c r="E22" s="6">
-        <x:v>417421.66</x:v>
-      </x:c>
-      <x:c r="F22" s="7">
-        <x:v>14.716854860347</x:v>
-      </x:c>
-      <x:c r="G22" s="6">
-        <x:v>10923.63</x:v>
-      </x:c>
-      <x:c r="H22" s="6">
-        <x:v>7691.98207</x:v>
-      </x:c>
-      <x:c r="I22" s="6">
-        <x:f>SUM(G22:H22)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:26" ht="20" customHeight="1">
-      <x:c r="C23" s="8">
-        <x:f>SUM(C9:C22)</x:f>
-      </x:c>
-      <x:c r="D23" s="8">
-        <x:f>SUM(D9:D22)</x:f>
-      </x:c>
-      <x:c r="E23" s="8">
-        <x:f>SUM(E9:E22)</x:f>
-      </x:c>
-      <x:c r="F23" s="9">
-        <x:f>AVERAGE(F9:F22)</x:f>
-      </x:c>
-      <x:c r="G23" s="8">
-        <x:f>SUM(G9:G22)</x:f>
-      </x:c>
-      <x:c r="H23" s="8">
-        <x:f>SUM(H9:H22)</x:f>
-      </x:c>
-      <x:c r="I23" s="8">
-        <x:f>SUM(I9:I22)</x:f>
-      </x:c>
-      <x:c r="J23" s="10"/>
-      <x:c r="K23" s="10"/>
-      <x:c r="L23" s="10"/>
-      <x:c r="M23" s="10"/>
-      <x:c r="N23" s="10"/>
-      <x:c r="O23" s="10"/>
-      <x:c r="P23" s="10"/>
-      <x:c r="Q23" s="10"/>
-      <x:c r="R23" s="10"/>
-      <x:c r="S23" s="10"/>
-      <x:c r="T23" s="10"/>
-      <x:c r="U23" s="10"/>
-      <x:c r="V23" s="10"/>
-      <x:c r="W23" s="10"/>
-      <x:c r="X23" s="10"/>
-      <x:c r="Y23" s="10"/>
-      <x:c r="Z23" s="10"/>
+      <x:c r="B119" s="12" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C119" s="12"/>
+      <x:c r="D119" s="12"/>
+      <x:c r="E119" s="12"/>
+      <x:c r="F119" s="12"/>
+      <x:c r="G119" s="12"/>
+      <x:c r="H119" s="12"/>
+      <x:c r="I119" s="12"/>
+      <x:c r="J119" s="12"/>
+      <x:c r="K119" s="12"/>
+      <x:c r="L119" s="12"/>
+      <x:c r="M119" s="12"/>
+      <x:c r="N119" s="12"/>
+      <x:c r="O119" s="12"/>
+      <x:c r="P119" s="12"/>
+      <x:c r="Q119" s="12"/>
+      <x:c r="R119" s="12"/>
+      <x:c r="S119" s="12"/>
+      <x:c r="T119" s="12"/>
+      <x:c r="U119" s="12"/>
+      <x:c r="V119" s="12"/>
+      <x:c r="W119" s="12"/>
+      <x:c r="X119" s="12"/>
+      <x:c r="Y119" s="12"/>
+      <x:c r="Z119" s="12"/>
+    </x:row>
+    <x:row r="120" spans="1:26">
+      <x:c r="B120" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C120" s="13">
+        <x:v>276721.29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:26">
+      <x:c r="B121" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C121" s="13">
+        <x:v>3234.24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:26">
+      <x:c r="B122" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C122" s="13">
+        <x:v>80.8335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:26">
+      <x:c r="B123" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C123" s="13">
+        <x:v>104562.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:26">
+      <x:c r="C124" s="11">
+        <x:f>SUM(C120:C123)</x:f>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
     <x:mergeCell ref="C2:G2"/>
-    <x:mergeCell ref="D3:G3"/>
+    <x:mergeCell ref="C3:G3"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--RIEPILOGO-AGENTI.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--RIEPILOGO-AGENTI.xlsx
@@ -55,85 +55,85 @@
     <x:t>415.01069</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">WATT SRLS                                                   </x:t>
+    <x:t>WATT SRLS</x:t>
   </x:si>
   <x:si>
     <x:t>415.01079</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">SARCO DI PICCIONE R. &amp; ZUCCHINI P. SNC                      </x:t>
+    <x:t>SARCO DI PICCIONE R. &amp; ZUCCHINI P. SNC</x:t>
   </x:si>
   <x:si>
     <x:t>415.01034</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">ERAMO VITTORIO                                              </x:t>
+    <x:t>ERAMO VITTORIO</x:t>
   </x:si>
   <x:si>
     <x:t>415.01023</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">AGENZIA GIERRE di R.P. &amp; C. S.n.c.                          </x:t>
+    <x:t>AGENZIA GIERRE di R.P. &amp; C. S.n.c.</x:t>
   </x:si>
   <x:si>
     <x:t>415.01089</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">RAPPRESENTANZE ELETTRICHE PIEMONTESI SRL                    </x:t>
+    <x:t>RAPPRESENTANZE ELETTRICHE PIEMONTESI SRL</x:t>
   </x:si>
   <x:si>
     <x:t>415.01046</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">CALABRIA LUIGINO                                            </x:t>
+    <x:t>CALABRIA LUIGINO</x:t>
   </x:si>
   <x:si>
     <x:t>415.01050</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">S.V.R. S.R.L.                                               </x:t>
+    <x:t>S.V.R. S.R.L.</x:t>
   </x:si>
   <x:si>
     <x:t>415.01086</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">DG S.A.S. DI PAOLO DI GENOVA &amp; C.                           </x:t>
+    <x:t>DG S.A.S. DI PAOLO DI GENOVA &amp; C.</x:t>
   </x:si>
   <x:si>
     <x:t>415.01048</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">GRIMALDI FRANCESCO                                          </x:t>
+    <x:t>GRIMALDI FRANCESCO</x:t>
   </x:si>
   <x:si>
     <x:t>415.01084</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">BCD RAPPRESENTANZE SNC DI CAPPUGI ALESSIO &amp; C.              </x:t>
+    <x:t>BCD RAPPRESENTANZE SNC DI CAPPUGI ALESSIO &amp; C.</x:t>
   </x:si>
   <x:si>
     <x:t>415.01078</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">MCR SAS DI MAURO CAROVILLANO                                </x:t>
+    <x:t>MCR SAS DI MAURO CAROVILLANO</x:t>
   </x:si>
   <x:si>
     <x:t>415.01070</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">MELIS EMANUELE                                              </x:t>
+    <x:t>MELIS EMANUELE</x:t>
   </x:si>
   <x:si>
     <x:t>415.01087</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">SCATTOLIN &amp; RUBBI SAS DI SCATTOLIN MARCO &amp; C.               </x:t>
+    <x:t>SCATTOLIN &amp; RUBBI SAS DI SCATTOLIN MARCO &amp; C.</x:t>
   </x:si>
   <x:si>
     <x:t>415.01072</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">PALLAVER ANTONIO                                            </x:t>
+    <x:t>PALLAVER ANTONIO</x:t>
   </x:si>
   <x:si>
     <x:t>SELL OUT</x:t>
@@ -799,7 +799,7 @@
         <x:v>195019.799999999</x:v>
       </x:c>
       <x:c r="F10" s="8">
-        <x:v>0.594334319889085</x:v>
+        <x:v>0.594334319889086</x:v>
       </x:c>
       <x:c r="G10" s="7">
         <x:v>427232.6032</x:v>
@@ -825,7 +825,7 @@
         <x:v>114292.1</x:v>
       </x:c>
       <x:c r="D11" s="7">
-        <x:v>68262.0599999999</x:v>
+        <x:v>68262.0599999998</x:v>
       </x:c>
       <x:c r="E11" s="7">
         <x:v>-46030.0400000002</x:v>
@@ -860,10 +860,10 @@
         <x:v>583466.609999999</x:v>
       </x:c>
       <x:c r="E12" s="7">
-        <x:v>34713.1600000001</x:v>
+        <x:v>34713.1600000004</x:v>
       </x:c>
       <x:c r="F12" s="8">
-        <x:v>0.0632582082171879</x:v>
+        <x:v>0.0632582082171883</x:v>
       </x:c>
       <x:c r="G12" s="7">
         <x:v>134317.7721</x:v>
@@ -921,7 +921,7 @@
         <x:v>149505.06</x:v>
       </x:c>
       <x:c r="D14" s="7">
-        <x:v>89416.0099999999</x:v>
+        <x:v>89416.01</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>-60089.0500000001</x:v>
@@ -988,10 +988,10 @@
         <x:v>69620</x:v>
       </x:c>
       <x:c r="E16" s="7">
-        <x:v>3020.06999999995</x:v>
+        <x:v>3020.06999999998</x:v>
       </x:c>
       <x:c r="F16" s="8">
-        <x:v>0.0453464440578233</x:v>
+        <x:v>0.0453464440578237</x:v>
       </x:c>
       <x:c r="G16" s="7">
         <x:v>285982.4012539</x:v>
@@ -1116,10 +1116,10 @@
         <x:v>66843.61</x:v>
       </x:c>
       <x:c r="E20" s="7">
-        <x:v>-2573.41000000005</x:v>
+        <x:v>-2573.41000000003</x:v>
       </x:c>
       <x:c r="F20" s="8">
-        <x:v>-0.0370717440765975</x:v>
+        <x:v>-0.0370717440765972</x:v>
       </x:c>
       <x:c r="G20" s="7">
         <x:v>85396.908</x:v>
